--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AR2_50_9_matched_error_tables_T45.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AR2_50_9_matched_error_tables_T45.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.0254748296512313</v>
+        <v>-0.0958905286338048</v>
       </c>
       <c r="C2">
-        <v>1.487060150505943</v>
+        <v>1.890977232749403</v>
       </c>
       <c r="D2">
-        <v>8.204358864081295</v>
+        <v>16.63270717711324</v>
       </c>
       <c r="E2">
-        <v>2.86432520222151</v>
+        <v>4.07832161276097</v>
       </c>
       <c r="F2">
-        <v>2.92858426574186</v>
+        <v>4.173141263113404</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.6231471476049726</v>
+        <v>0.1616684523960579</v>
       </c>
       <c r="C3">
-        <v>2.149823722789349</v>
+        <v>1.751782844777193</v>
       </c>
       <c r="D3">
-        <v>19.09538388526634</v>
+        <v>11.43642227753171</v>
       </c>
       <c r="E3">
-        <v>4.369826528051926</v>
+        <v>3.381777975789024</v>
       </c>
       <c r="F3">
-        <v>4.426949790444016</v>
+        <v>3.461329205447403</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.8905896291048404</v>
+        <v>-0.5325954658642663</v>
       </c>
       <c r="C4">
-        <v>1.378004675742914</v>
+        <v>1.006200763201028</v>
       </c>
       <c r="D4">
-        <v>7.676892968144138</v>
+        <v>4.239438742259294</v>
       </c>
       <c r="E4">
-        <v>2.770720658627307</v>
+        <v>2.058989738259833</v>
       </c>
       <c r="F4">
-        <v>2.688481027403539</v>
+        <v>2.040583201466039</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.09339861389089041</v>
+        <v>0.08803471659571853</v>
       </c>
       <c r="C5">
-        <v>0.4914936818093819</v>
+        <v>0.7012671322584916</v>
       </c>
       <c r="D5">
-        <v>0.4832682964296551</v>
+        <v>1.718504603501026</v>
       </c>
       <c r="E5">
-        <v>0.6951750113673931</v>
+        <v>1.310917466319305</v>
       </c>
       <c r="F5">
-        <v>0.7067680296532315</v>
+        <v>1.343799244086288</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1408622386988335</v>
+        <v>0.03921355053569192</v>
       </c>
       <c r="C6">
-        <v>0.8298683219479311</v>
+        <v>0.7111885899396917</v>
       </c>
       <c r="D6">
-        <v>1.789059693641156</v>
+        <v>1.651775566409927</v>
       </c>
       <c r="E6">
-        <v>1.337557360878836</v>
+        <v>1.28521421032057</v>
       </c>
       <c r="F6">
-        <v>1.366567739176598</v>
+        <v>1.32185879706788</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.06671830263824358</v>
+        <v>0.001844256264950899</v>
       </c>
       <c r="C7">
-        <v>0.6750367220520066</v>
+        <v>0.5263250456906655</v>
       </c>
       <c r="D7">
-        <v>1.315810782452338</v>
+        <v>0.5109976273144233</v>
       </c>
       <c r="E7">
-        <v>1.147087957591892</v>
+        <v>0.7148409804386031</v>
       </c>
       <c r="F7">
-        <v>1.178345552778965</v>
+        <v>0.7368387646970881</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.01304991229360516</v>
+        <v>0.08035112964095253</v>
       </c>
       <c r="C8">
-        <v>0.5207978849898635</v>
+        <v>0.5395919000237238</v>
       </c>
       <c r="D8">
-        <v>0.4860254750586991</v>
+        <v>0.5895437054918792</v>
       </c>
       <c r="E8">
-        <v>0.6971552732775527</v>
+        <v>0.7678174949113098</v>
       </c>
       <c r="F8">
-        <v>0.7184852978842488</v>
+        <v>0.7886443399199595</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.276249544383158</v>
+        <v>0.2273427043598581</v>
       </c>
       <c r="C9">
-        <v>0.5074605133255659</v>
+        <v>0.4403849132099676</v>
       </c>
       <c r="D9">
-        <v>0.4401873792382052</v>
+        <v>0.3519323016671984</v>
       </c>
       <c r="E9">
-        <v>0.6634661854519831</v>
+        <v>0.5932388234658942</v>
       </c>
       <c r="F9">
-        <v>0.6230022522945293</v>
+        <v>0.5671806179077581</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1691041117434205</v>
+        <v>0.1748763756256576</v>
       </c>
       <c r="C10">
-        <v>0.3720285681882072</v>
+        <v>0.409076363660635</v>
       </c>
       <c r="D10">
-        <v>0.2384939909285282</v>
+        <v>0.3114511502836552</v>
       </c>
       <c r="E10">
-        <v>0.4883584656054692</v>
+        <v>0.5580780861883534</v>
       </c>
       <c r="F10">
-        <v>0.4742262009089842</v>
+        <v>0.5499770379433091</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2048918841260996</v>
+        <v>0.2035941852220243</v>
       </c>
       <c r="C11">
-        <v>0.4286216204399972</v>
+        <v>0.3624616766655595</v>
       </c>
       <c r="D11">
-        <v>0.2971361016417544</v>
+        <v>0.1868369991019794</v>
       </c>
       <c r="E11">
-        <v>0.545101918581979</v>
+        <v>0.432246456436579</v>
       </c>
       <c r="F11">
-        <v>0.5257550464960803</v>
+        <v>0.396865141766788</v>
       </c>
       <c r="G11">
         <v>13</v>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AR2_50_9_matched_error_tables_T45.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AR2_50_9_matched_error_tables_T45.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.0958905286338048</v>
+        <v>0.0254748296512313</v>
       </c>
       <c r="C2">
-        <v>1.890977232749403</v>
+        <v>1.487060150505943</v>
       </c>
       <c r="D2">
-        <v>16.63270717711324</v>
+        <v>8.204358864081295</v>
       </c>
       <c r="E2">
-        <v>4.07832161276097</v>
+        <v>2.86432520222151</v>
       </c>
       <c r="F2">
-        <v>4.173141263113404</v>
+        <v>2.92858426574186</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1616684523960579</v>
+        <v>0.6231471476049726</v>
       </c>
       <c r="C3">
-        <v>1.751782844777193</v>
+        <v>2.149823722789349</v>
       </c>
       <c r="D3">
-        <v>11.43642227753171</v>
+        <v>19.09538388526634</v>
       </c>
       <c r="E3">
-        <v>3.381777975789024</v>
+        <v>4.369826528051926</v>
       </c>
       <c r="F3">
-        <v>3.461329205447403</v>
+        <v>4.426949790444016</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.5325954658642663</v>
+        <v>-0.8905896291048404</v>
       </c>
       <c r="C4">
-        <v>1.006200763201028</v>
+        <v>1.378004675742914</v>
       </c>
       <c r="D4">
-        <v>4.239438742259294</v>
+        <v>7.676892968144138</v>
       </c>
       <c r="E4">
-        <v>2.058989738259833</v>
+        <v>2.770720658627307</v>
       </c>
       <c r="F4">
-        <v>2.040583201466039</v>
+        <v>2.688481027403539</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.08803471659571853</v>
+        <v>0.09339861389089041</v>
       </c>
       <c r="C5">
-        <v>0.7012671322584916</v>
+        <v>0.4914936818093819</v>
       </c>
       <c r="D5">
-        <v>1.718504603501026</v>
+        <v>0.4832682964296551</v>
       </c>
       <c r="E5">
-        <v>1.310917466319305</v>
+        <v>0.6951750113673931</v>
       </c>
       <c r="F5">
-        <v>1.343799244086288</v>
+        <v>0.7067680296532315</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.03921355053569192</v>
+        <v>0.1408622386988335</v>
       </c>
       <c r="C6">
-        <v>0.7111885899396917</v>
+        <v>0.8298683219479311</v>
       </c>
       <c r="D6">
-        <v>1.651775566409927</v>
+        <v>1.789059693641156</v>
       </c>
       <c r="E6">
-        <v>1.28521421032057</v>
+        <v>1.337557360878836</v>
       </c>
       <c r="F6">
-        <v>1.32185879706788</v>
+        <v>1.366567739176598</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.001844256264950899</v>
+        <v>-0.06671830263824358</v>
       </c>
       <c r="C7">
-        <v>0.5263250456906655</v>
+        <v>0.6750367220520066</v>
       </c>
       <c r="D7">
-        <v>0.5109976273144233</v>
+        <v>1.315810782452338</v>
       </c>
       <c r="E7">
-        <v>0.7148409804386031</v>
+        <v>1.147087957591892</v>
       </c>
       <c r="F7">
-        <v>0.7368387646970881</v>
+        <v>1.178345552778965</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.08035112964095253</v>
+        <v>-0.01304991229360516</v>
       </c>
       <c r="C8">
-        <v>0.5395919000237238</v>
+        <v>0.5207978849898635</v>
       </c>
       <c r="D8">
-        <v>0.5895437054918792</v>
+        <v>0.4860254750586991</v>
       </c>
       <c r="E8">
-        <v>0.7678174949113098</v>
+        <v>0.6971552732775527</v>
       </c>
       <c r="F8">
-        <v>0.7886443399199595</v>
+        <v>0.7184852978842488</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2273427043598581</v>
+        <v>0.276249544383158</v>
       </c>
       <c r="C9">
-        <v>0.4403849132099676</v>
+        <v>0.5074605133255659</v>
       </c>
       <c r="D9">
-        <v>0.3519323016671984</v>
+        <v>0.4401873792382052</v>
       </c>
       <c r="E9">
-        <v>0.5932388234658942</v>
+        <v>0.6634661854519831</v>
       </c>
       <c r="F9">
-        <v>0.5671806179077581</v>
+        <v>0.6230022522945293</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1748763756256576</v>
+        <v>0.1691041117434205</v>
       </c>
       <c r="C10">
-        <v>0.409076363660635</v>
+        <v>0.3720285681882072</v>
       </c>
       <c r="D10">
-        <v>0.3114511502836552</v>
+        <v>0.2384939909285282</v>
       </c>
       <c r="E10">
-        <v>0.5580780861883534</v>
+        <v>0.4883584656054692</v>
       </c>
       <c r="F10">
-        <v>0.5499770379433091</v>
+        <v>0.4742262009089842</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2035941852220243</v>
+        <v>0.2048918841260996</v>
       </c>
       <c r="C11">
-        <v>0.3624616766655595</v>
+        <v>0.4286216204399972</v>
       </c>
       <c r="D11">
-        <v>0.1868369991019794</v>
+        <v>0.2971361016417544</v>
       </c>
       <c r="E11">
-        <v>0.432246456436579</v>
+        <v>0.545101918581979</v>
       </c>
       <c r="F11">
-        <v>0.396865141766788</v>
+        <v>0.5257550464960803</v>
       </c>
       <c r="G11">
         <v>13</v>
